--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2552415.95907669</v>
+        <v>2656595.593527761</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9031527.651256898</v>
+        <v>9031527.651256897</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>63.25786276724374</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>204.7363363507814</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247723</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>7.651260903167175</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>225.332626433276</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +901,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>95.92502041856103</v>
+        <v>81.70472281453443</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1104,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>60.61132240790889</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>275.2323287676143</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>157.714110798666</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>262.2618143196432</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>61.51390569213391</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1309,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>53.46574948431189</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,13 +1347,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206852</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128544</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856549</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012162</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>130.939875702566</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695709</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>45.36631724422188</v>
       </c>
       <c r="I16" t="n">
-        <v>11.56087338713497</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>139.5115415340516</v>
+        <v>53.82913822149973</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2175,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>199.298406692554</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.82097448421257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2412,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2476,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>54.10799870228475</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>221.3548198009126</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>113.3048871355469</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,16 +2769,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>104.7777418077832</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2886,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>1.207068174443584</v>
       </c>
       <c r="T31" t="n">
-        <v>112.3470522562615</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>40.5342109554691</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,13 +3246,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>47.4973478028577</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710069</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>132.3950627812472</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3436,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>51.89407438975509</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>140.176011444184</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>25.78734729249771</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,16 +3717,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3834,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3904,10 +3906,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,10 +3954,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>124.8808320771206</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>163.3736250957652</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>100.1755269486888</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>50.5268247622971</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.939223126803</v>
+        <v>2124.186667467494</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1755.224150527082</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1396.958451920332</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4349,31 +4351,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180638</v>
+        <v>2510.786507531616</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204827</v>
+        <v>2510.786507531616</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>629.1078027362229</v>
+        <v>782.492950298343</v>
       </c>
       <c r="C4" t="n">
-        <v>460.171619808316</v>
+        <v>782.492950298343</v>
       </c>
       <c r="D4" t="n">
-        <v>310.0549803959802</v>
+        <v>632.3763108860072</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959802</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959802</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U4" t="n">
-        <v>1513.842048484845</v>
+        <v>1326.594608541191</v>
       </c>
       <c r="V4" t="n">
-        <v>1259.157560278958</v>
+        <v>1071.910120335304</v>
       </c>
       <c r="W4" t="n">
-        <v>1031.548846709993</v>
+        <v>782.492950298343</v>
       </c>
       <c r="X4" t="n">
-        <v>1031.548846709993</v>
+        <v>782.492950298343</v>
       </c>
       <c r="Y4" t="n">
-        <v>810.7562675664626</v>
+        <v>782.492950298343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2102.480899540949</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C5" t="n">
-        <v>1733.518382600538</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D5" t="n">
-        <v>1375.252683993787</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="E5" t="n">
-        <v>989.464431395543</v>
+        <v>167.0196863409706</v>
       </c>
       <c r="F5" t="n">
-        <v>578.4785266059355</v>
+        <v>160.0741855917672</v>
       </c>
       <c r="G5" t="n">
-        <v>163.4060764509319</v>
+        <v>149.0421394771677</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4583,10 +4585,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866151</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605071</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2489.080739605071</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>381.1049005553748</v>
+        <v>500.476813167026</v>
       </c>
       <c r="C7" t="n">
-        <v>381.1049005553748</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="D7" t="n">
-        <v>381.1049005553748</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1776.240532858234</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1554.47391742776</v>
       </c>
       <c r="U7" t="n">
-        <v>1145.999137941752</v>
+        <v>1265.371050553404</v>
       </c>
       <c r="V7" t="n">
-        <v>891.3146497358655</v>
+        <v>1010.686562347517</v>
       </c>
       <c r="W7" t="n">
-        <v>601.8974796989049</v>
+        <v>721.2693923105561</v>
       </c>
       <c r="X7" t="n">
-        <v>601.8974796989049</v>
+        <v>721.2693923105561</v>
       </c>
       <c r="Y7" t="n">
-        <v>381.1049005553748</v>
+        <v>500.476813167026</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1901.535346136984</v>
+        <v>1749.723851760224</v>
       </c>
       <c r="C8" t="n">
-        <v>1901.535346136984</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D8" t="n">
-        <v>1543.269647530234</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>1157.48139493199</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>746.4954901423821</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>331.4230399873786</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4817,7 +4819,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4829,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176918</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176918</v>
+        <v>2513.328941997116</v>
       </c>
       <c r="X8" t="n">
-        <v>2678.274518176918</v>
+        <v>2139.863183736036</v>
       </c>
       <c r="Y8" t="n">
-        <v>2288.135186201106</v>
+        <v>1749.723851760224</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1003.632299304354</v>
+        <v>732.4676803942466</v>
       </c>
       <c r="C10" t="n">
-        <v>834.6961163764475</v>
+        <v>732.4676803942466</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>582.3510409819108</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>434.4379473995177</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>434.4379473995177</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>266.7351107742367</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>120.5179239920944</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484845</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1513.842048484845</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>1224.424878447885</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X10" t="n">
-        <v>1224.424878447885</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="Y10" t="n">
-        <v>1003.632299304354</v>
+        <v>914.1161452244863</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797193</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191928</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.067041434952</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061504</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.445529061504</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2072.355259300792</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2495.97840879586</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>782.8410298377091</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>379.6759351444937</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>212.4798358593736</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038347</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2064.800044777906</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1775.724818122104</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1521.040329916217</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1231.623159879256</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1003.633608981239</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>782.8410298377091</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797193</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637309</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890283</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998423</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171314</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C16" t="n">
-        <v>564.5188827892246</v>
+        <v>666.6476097656489</v>
       </c>
       <c r="D16" t="n">
-        <v>414.4022433768888</v>
+        <v>516.5309703533131</v>
       </c>
       <c r="E16" t="n">
-        <v>414.4022433768888</v>
+        <v>368.61787677092</v>
       </c>
       <c r="F16" t="n">
-        <v>414.4022433768888</v>
+        <v>221.7279292730097</v>
       </c>
       <c r="G16" t="n">
-        <v>247.2061440917687</v>
+        <v>221.7279292730097</v>
       </c>
       <c r="H16" t="n">
-        <v>105.4943129339669</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487569</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831766</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625879</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588919</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.896109690901</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473712</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="17">
@@ -5507,19 +5509,19 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5531,16 +5533,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>554.5813165460164</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C19" t="n">
-        <v>385.6451336181095</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D19" t="n">
-        <v>235.5284942057738</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E19" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5741,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5765,10 +5767,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5777,22 +5779,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5831,28 @@
         <v>2231.58852738579</v>
       </c>
       <c r="J21" t="n">
-        <v>2231.58852738579</v>
+        <v>2381.235169913445</v>
       </c>
       <c r="K21" t="n">
-        <v>2565.513299557011</v>
+        <v>2381.235169913445</v>
       </c>
       <c r="L21" t="n">
-        <v>3060.838905772769</v>
+        <v>2381.235169913445</v>
       </c>
       <c r="M21" t="n">
-        <v>3060.838905772769</v>
+        <v>2978.613657539997</v>
       </c>
       <c r="N21" t="n">
-        <v>3688.436869327375</v>
+        <v>3606.211621094604</v>
       </c>
       <c r="O21" t="n">
-        <v>4240.346599566662</v>
+        <v>4158.121351333891</v>
       </c>
       <c r="P21" t="n">
-        <v>4457.571492023711</v>
+        <v>4420.931837070598</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>4654.19349744548</v>
       </c>
       <c r="R21" t="n">
         <v>4690.833152398593</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3195.647281583952</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C22" t="n">
-        <v>3026.711098656045</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D22" t="n">
-        <v>2876.594459243709</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>2728.681365661316</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661316</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376196</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218394</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866308</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296631</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.61201282217</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.01060699811</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729145</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389153</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098138</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671697</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053497</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4507.978318053497</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4218.903091397695</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3964.218603191808</v>
+        <v>1487.074331943035</v>
       </c>
       <c r="W22" t="n">
-        <v>3674.801433154847</v>
+        <v>1197.657161906075</v>
       </c>
       <c r="X22" t="n">
-        <v>3446.81188225683</v>
+        <v>969.6676110080573</v>
       </c>
       <c r="Y22" t="n">
-        <v>3377.295746414191</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="23">
@@ -5969,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5981,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6014,22 +6016,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191924</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L24" t="n">
-        <v>923.067041434951</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
         <v>1896.176478190825</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3229.99567394046</v>
+        <v>3006.404946868832</v>
       </c>
       <c r="C25" t="n">
-        <v>3061.059491012553</v>
+        <v>3006.404946868832</v>
       </c>
       <c r="D25" t="n">
-        <v>2910.942851600218</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="E25" t="n">
-        <v>2763.029758017824</v>
+        <v>2708.375213874103</v>
       </c>
       <c r="F25" t="n">
-        <v>2616.139810519914</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376192</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.77343521839</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I25" t="n">
         <v>2337.686731866304</v>
@@ -6148,22 +6150,22 @@
         <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822166</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
         <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729141</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389149</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098134</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671693</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
         <v>4690.833152398593</v>
@@ -6175,22 +6177,22 @@
         <v>4623.787448650995</v>
       </c>
       <c r="T25" t="n">
-        <v>4404.185983673936</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U25" t="n">
-        <v>4115.110757018134</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V25" t="n">
-        <v>3860.426268812247</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="W25" t="n">
-        <v>3860.426268812247</v>
+        <v>3636.835541740619</v>
       </c>
       <c r="X25" t="n">
-        <v>3632.43671791423</v>
+        <v>3408.845990842602</v>
       </c>
       <c r="Y25" t="n">
-        <v>3411.6441387707</v>
+        <v>3188.053411699072</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6251,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>2565.513299557011</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L27" t="n">
-        <v>2565.513299557011</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M27" t="n">
-        <v>3162.891787183562</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N27" t="n">
-        <v>3715.300272664238</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>4267.210002903525</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.777212765616</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>604.4387941280856</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>604.4387941280856</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>457.5488466301753</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>290.3527473450552</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6415,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1354.218256739386</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192586</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2233.355914590557</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>2383.002557118212</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>2383.002557118212</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>2877.307316025035</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>3474.685803651587</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>4102.283767206193</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>4654.19349744548</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>4654.19349744548</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.19349744548</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>868.6673633290468</v>
+        <v>3006.404946868832</v>
       </c>
       <c r="C31" t="n">
-        <v>699.7311804011399</v>
+        <v>3006.404946868832</v>
       </c>
       <c r="D31" t="n">
-        <v>549.6145409888042</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>2708.375213874103</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>4689.613891616327</v>
       </c>
       <c r="T31" t="n">
-        <v>2150.626378269244</v>
+        <v>4470.012426639269</v>
       </c>
       <c r="U31" t="n">
-        <v>1861.551151613442</v>
+        <v>4180.937199983467</v>
       </c>
       <c r="V31" t="n">
-        <v>1606.866663407555</v>
+        <v>3926.25271177758</v>
       </c>
       <c r="W31" t="n">
-        <v>1317.449493370594</v>
+        <v>3636.835541740619</v>
       </c>
       <c r="X31" t="n">
-        <v>1089.459942472577</v>
+        <v>3408.845990842602</v>
       </c>
       <c r="Y31" t="n">
-        <v>868.6673633290468</v>
+        <v>3188.053411699072</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6688,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6774,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756265</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913851</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972543</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.67509321183</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D34" t="n">
-        <v>363.7369613277355</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>322.7933138979687</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,22 +7010,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>95.584050252739</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245714</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L36" t="n">
-        <v>776.17510664033</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266882</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
         <v>2001.151557821488</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3173.601046153951</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153951</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159222</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661312</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376192</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4638.414895439244</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4455.560061094148</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4455.560061094148</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>4166.484834438346</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>3911.80034623246</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>3622.383176195499</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>3394.393625297481</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>3173.601046153951</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,40 +7186,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637304</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438179</v>
+        <v>2830.73440221711</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>3458.332365771717</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>4010.242096011004</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>4433.865245506072</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>4667.126905880955</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.345997432834</v>
+        <v>782.841029837709</v>
       </c>
       <c r="C40" t="n">
-        <v>923.4098145049275</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D40" t="n">
-        <v>773.2931750925917</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2420.915258032283</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2238.060423687188</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2018.458958710129</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1729.383732054326</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304621</v>
+        <v>1474.699243848439</v>
       </c>
       <c r="W40" t="n">
-        <v>1722.776592304621</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="X40" t="n">
-        <v>1494.787041406604</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y40" t="n">
-        <v>1273.994462263074</v>
+        <v>964.4894946679487</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,16 +7408,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7424,22 +7426,22 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7451,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>2876.560776129204</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>3445.398957336244</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>3445.398957336244</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>3997.308687575531</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>931.4710609784064</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5348780504995</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381638</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557706</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7570,10 +7572,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1851.318825887154</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1561.901655850193</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1333.912104952176</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1113.119525808646</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="44">
@@ -7637,58 +7639,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111758</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075849</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332391</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014783</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355941</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797193</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273908</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>2565.513299557012</v>
       </c>
       <c r="L45" t="n">
-        <v>913.2907898187003</v>
+        <v>3060.83890577277</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187003</v>
+        <v>3658.217393399322</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>4285.815356953929</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>4285.815356953929</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1030.918378293891</v>
+        <v>917.5010142286973</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>748.5648313007904</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>748.5648313007904</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>600.6517377183973</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>453.7617902204869</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578603</v>
+        <v>286.5656909353668</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000584</v>
+        <v>144.8538597775649</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7831,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304621</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.359422267661</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X46" t="n">
-        <v>1433.359422267661</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y46" t="n">
-        <v>1212.566843124131</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-2.589839328116501e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>-6.538133005296236e-13</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>22.81817176293616</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>86.46557462472228</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23659,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>94.92839560200201</v>
       </c>
       <c r="I16" t="n">
-        <v>69.70496293143053</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>40.32043864788571</v>
+        <v>126.0028419604376</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>52.83923663127396</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>149.7636788678822</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>111.4161395899841</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>65.16817853567844</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>26.98982571067694</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24655,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>147.3599015160448</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>179.819217827201</v>
       </c>
       <c r="T31" t="n">
-        <v>105.0583980710267</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>105.8997516911001</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25132,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>178.2123075861795</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>47.43691740069013</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>14.48117232036661</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>6.257951202385129</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>40.58789941762395</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25792,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>127.2568112467074</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>55.2110282563296</v>
       </c>
     </row>
     <row r="44">
@@ -26023,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>67.07129414993906</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>30.73901155626843</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>777768.2610757276</v>
+        <v>777768.2610757275</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>777768.2610757276</v>
+        <v>777768.2610757275</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>777768.2610757274</v>
+        <v>777768.2610757275</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>777768.2610757275</v>
+        <v>777768.2610757274</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>777768.2610757276</v>
+        <v>777768.2610757275</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>777768.2610757274</v>
+        <v>777768.2610757275</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>777768.2610757276</v>
+        <v>777768.2610757274</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>777768.2610757276</v>
+        <v>777768.2610757275</v>
       </c>
     </row>
     <row r="15">
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914268</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.4158914267</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914266</v>
-      </c>
       <c r="D2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="F2" t="n">
         <v>645717.279752005</v>
@@ -26329,31 +26331,31 @@
         <v>645717.2797520049</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="J2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="O2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520048</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.461807356</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815714</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680572</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680574</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
         <v>11776.97621680582</v>
@@ -26436,25 +26438,25 @@
         <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680589</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680577</v>
       </c>
       <c r="L4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680585</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
         <v>11776.97621680582</v>
@@ -26476,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26524,46 @@
         <v>-870809.2813857163</v>
       </c>
       <c r="C6" t="n">
-        <v>457935.4643418762</v>
+        <v>457935.4643418766</v>
       </c>
       <c r="D6" t="n">
-        <v>457935.4643418764</v>
+        <v>457935.4643418761</v>
       </c>
       <c r="E6" t="n">
-        <v>207405.3119039364</v>
+        <v>207405.3119039368</v>
       </c>
       <c r="F6" t="n">
-        <v>532817.7737112923</v>
+        <v>532817.7737112921</v>
       </c>
       <c r="G6" t="n">
-        <v>532817.7737112927</v>
+        <v>532817.773711292</v>
       </c>
       <c r="H6" t="n">
-        <v>532817.7737112922</v>
+        <v>532817.7737112921</v>
       </c>
       <c r="I6" t="n">
-        <v>532817.7737112921</v>
+        <v>532817.7737112918</v>
       </c>
       <c r="J6" t="n">
         <v>315286.5713140147</v>
       </c>
       <c r="K6" t="n">
+        <v>532817.7737112922</v>
+      </c>
+      <c r="L6" t="n">
+        <v>532817.7737112923</v>
+      </c>
+      <c r="M6" t="n">
+        <v>447762.7457757805</v>
+      </c>
+      <c r="N6" t="n">
+        <v>532817.7737112922</v>
+      </c>
+      <c r="O6" t="n">
         <v>532817.7737112921</v>
       </c>
-      <c r="L6" t="n">
-        <v>532817.7737112921</v>
-      </c>
-      <c r="M6" t="n">
-        <v>447762.7457757801</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>532817.7737112918</v>
-      </c>
-      <c r="O6" t="n">
-        <v>532817.773711292</v>
-      </c>
-      <c r="P6" t="n">
-        <v>532817.773711292</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26744,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341675</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483764</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>319.4759788962368</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>177.1940337214804</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>138.782701743402</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>61.19037190331503</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>198.6827439687594</v>
+        <v>212.903041572786</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27667,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>129.157702923533</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>10.97950943799856</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>207.5587809723415</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>32.34595006767728</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>87.10156732607845</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>42.8866709255262</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,13 +28067,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348437</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135344</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.544175081758</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175681</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159432</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460034</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236513</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669226</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043728</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.0736191065153</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422589</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473077</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862126</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437247</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214701</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q12" t="n">
-        <v>197.6412480909861</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742442</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937735</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275956</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189905</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121572</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869279</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796263</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.602080235518</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588156</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392048</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.676771792006</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515929</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532769</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467223</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>253.6713445157981</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437246</v>
+        <v>316.0872899694776</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214701</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485292</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32312,13 +32314,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>200.3460366764704</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,37 +32551,37 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>353.3934907042783</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,28 +32785,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>522.1224556861838</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -32813,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33026,34 +33028,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>362.180468412921</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>689.3300812557325</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>637.8521160493922</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33284,16 +33286,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,46 +33335,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>246.2467565146293</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>171.7382405950826</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,46 +33572,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>324.9782573297452</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,46 +33809,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,13 +33964,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,34 +33979,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>233.9389431948339</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>169.6252075171343</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,46 +34046,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34210,37 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>716.7180553432702</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663326</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,40 +34444,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>476.064808938547</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>543.0832917018702</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317398</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396423</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367775</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462694</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902954</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243166</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683818</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924731</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678999</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674335</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992803</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071399</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.65947400496458</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>122.3296324324648</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992802</v>
+        <v>173.4910455250332</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071399</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625077</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789219</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35878,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35960,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>57.74979223202591</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>219.419083289948</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998946</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462695</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>379.5262112417394</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36674,28 +36676,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>224.339029438562</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>557.9883691723992</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>499.297736269518</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>37.76383318075232</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>187.1368183553863</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>91.80490927281556</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789208</v>
+        <v>23.94570355317035</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243176</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>574.5840214212518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396463</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>337.5104291586728</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>409.1088842875399</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2656595.593527761</v>
+        <v>2652582.983513768</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283199</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>74.322627841559</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>204.7363363507814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247734</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>7.651260903167175</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>114.2656173771016</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>81.70472281453443</v>
+        <v>17.35112070699466</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>65.29024472877059</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>60.61132240790889</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>157.714110798666</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>224.7411810187704</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>53.46574948431189</v>
+        <v>61.54499709292108</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>117.4765410832877</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>10.58364443467445</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>45.36631724422188</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187896</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.82913822149973</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444168</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>19.91555826189185</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>199.298406692554</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>26.05480806223717</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>221.3548198009126</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H28" t="n">
-        <v>113.3048871355469</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>11.56087338712147</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="29">
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>110.0177171766834</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S31" t="n">
-        <v>1.207068174443584</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="32">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856566</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>31.26260713376259</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X34" t="n">
-        <v>47.4973478028577</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="35">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.3950627812472</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>107.4021082756209</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="38">
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881329</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892427936</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>25.78734729249771</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="41">
@@ -3745,13 +3745,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>163.3736250957652</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>41.33703994143007</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>50.5268247622971</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2124.186667467494</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="C2" t="n">
-        <v>1755.224150527082</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1396.958451920332</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4348,10 +4348,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792696</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2884.252265792696</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>2510.786507531616</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y2" t="n">
-        <v>2510.786507531616</v>
+        <v>2051.278283189673</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686075</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.071687106475</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>782.492950298343</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>782.492950298343</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>632.3763108860072</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
         <v>624.6477645191717</v>
@@ -4485,22 +4485,22 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.594608541191</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="V4" t="n">
-        <v>1071.910120335304</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="W4" t="n">
-        <v>782.492950298343</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>782.492950298343</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>782.492950298343</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796265</v>
+        <v>2065.110222835252</v>
       </c>
       <c r="C5" t="n">
-        <v>552.8079389392149</v>
+        <v>1696.14770589484</v>
       </c>
       <c r="D5" t="n">
-        <v>552.8079389392149</v>
+        <v>1337.88200728809</v>
       </c>
       <c r="E5" t="n">
-        <v>167.0196863409706</v>
+        <v>952.0937546898456</v>
       </c>
       <c r="F5" t="n">
-        <v>160.0741855917672</v>
+        <v>541.1078499002381</v>
       </c>
       <c r="G5" t="n">
-        <v>149.0421394771677</v>
+        <v>126.0353997452345</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4585,10 +4585,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2841.849394875186</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>2451.710062899374</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.476813167026</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C7" t="n">
-        <v>331.5406302391191</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D7" t="n">
-        <v>331.5406302391191</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>331.5406302391191</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1776.240532858234</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1554.47391742776</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1265.371050553404</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1010.686562347517</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>721.2693923105561</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X7" t="n">
-        <v>721.2693923105561</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.476813167026</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.723851760224</v>
+        <v>2232.598233480555</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1863.635716540143</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1505.370017933393</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1119.581765335148</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>708.595860545541</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>293.5234103905374</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.09759726723</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>2513.328941997116</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X8" t="n">
-        <v>2139.863183736036</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="Y8" t="n">
-        <v>1749.723851760224</v>
+        <v>2619.198073544677</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>732.4676803942466</v>
+        <v>594.6215500005598</v>
       </c>
       <c r="C10" t="n">
-        <v>732.4676803942466</v>
+        <v>425.6853670726529</v>
       </c>
       <c r="D10" t="n">
-        <v>582.3510409819108</v>
+        <v>275.5687276603171</v>
       </c>
       <c r="E10" t="n">
-        <v>434.4379473995177</v>
+        <v>275.5687276603171</v>
       </c>
       <c r="F10" t="n">
-        <v>434.4379473995177</v>
+        <v>128.6787801624068</v>
       </c>
       <c r="G10" t="n">
-        <v>266.7351107742367</v>
+        <v>128.6787801624068</v>
       </c>
       <c r="H10" t="n">
-        <v>120.5179239920944</v>
+        <v>128.6787801624068</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4989,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W10" t="n">
-        <v>1134.908724368016</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="X10" t="n">
-        <v>1134.908724368016</v>
+        <v>776.2700148307995</v>
       </c>
       <c r="Y10" t="n">
-        <v>914.1161452244863</v>
+        <v>776.2700148307995</v>
       </c>
     </row>
     <row r="11">
@@ -5023,43 +5023,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5129,19 +5129,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828445</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424041</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D13" t="n">
-        <v>526.5658826424041</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E13" t="n">
-        <v>526.5658826424041</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>379.6759351444937</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>212.4798358593736</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2186.371995553553</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1897.296768897751</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1642.612280691864</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="14">
@@ -5269,22 +5269,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5372,10 +5372,10 @@
         <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>835.5837926935558</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>666.6476097656489</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>516.5309703533131</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>368.61787677092</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>221.7279292730097</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>221.7279292730097</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1017.232257523796</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611467</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168643</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852892</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591812</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>641.1291986799072</v>
+        <v>951.7772127656161</v>
       </c>
       <c r="C19" t="n">
-        <v>641.1291986799072</v>
+        <v>782.8410298377092</v>
       </c>
       <c r="D19" t="n">
-        <v>491.0125592675714</v>
+        <v>632.7243904253735</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797745</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611467</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168643</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362717</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852892</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591812</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273915</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913445</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K21" t="n">
-        <v>2381.235169913445</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L21" t="n">
-        <v>2381.235169913445</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M21" t="n">
-        <v>2978.613657539997</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N21" t="n">
-        <v>3606.211621094604</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O21" t="n">
-        <v>4158.121351333891</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>4420.931837070598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>788.0191461778176</v>
+        <v>580.8993044876702</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>411.9631215597633</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>261.8464821474275</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>113.9333885650344</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>113.9333885650344</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>113.9333885650344</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V22" t="n">
-        <v>1487.074331943035</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W22" t="n">
-        <v>1197.657161906075</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X22" t="n">
-        <v>969.6676110080573</v>
+        <v>983.34034846144</v>
       </c>
       <c r="Y22" t="n">
-        <v>969.6676110080573</v>
+        <v>762.5477693179099</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362694</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192517</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,40 +6001,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L24" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589159</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143766</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3006.404946868832</v>
+        <v>580.8993044876702</v>
       </c>
       <c r="C25" t="n">
-        <v>3006.404946868832</v>
+        <v>411.9631215597633</v>
       </c>
       <c r="D25" t="n">
-        <v>2856.288307456496</v>
+        <v>261.8464821474275</v>
       </c>
       <c r="E25" t="n">
-        <v>2708.375213874103</v>
+        <v>261.8464821474275</v>
       </c>
       <c r="F25" t="n">
-        <v>2561.485266376193</v>
+        <v>261.8464821474275</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S25" t="n">
-        <v>4623.787448650995</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T25" t="n">
-        <v>4404.185983673937</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U25" t="n">
-        <v>4115.110757018135</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V25" t="n">
-        <v>3860.426268812248</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W25" t="n">
-        <v>3636.835541740619</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X25" t="n">
-        <v>3408.845990842602</v>
+        <v>983.34034846144</v>
       </c>
       <c r="Y25" t="n">
-        <v>3188.053411699072</v>
+        <v>762.5477693179099</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,16 +6241,16 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>315.9123021921482</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>923.4916164683283</v>
+        <v>721.777415831137</v>
       </c>
       <c r="C28" t="n">
-        <v>754.5554335404214</v>
+        <v>552.84123290323</v>
       </c>
       <c r="D28" t="n">
-        <v>604.4387941280856</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="E28" t="n">
-        <v>604.4387941280856</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="F28" t="n">
-        <v>457.5488466301753</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="G28" t="n">
-        <v>290.3527473450552</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797629</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910797</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570806</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279791</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885335</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580249</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832651</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487556</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945772</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739885</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702925</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611858</v>
+        <v>1124.218459804907</v>
       </c>
       <c r="Y28" t="n">
-        <v>923.4916164683283</v>
+        <v>903.4258806613768</v>
       </c>
     </row>
     <row r="29">
@@ -6457,37 +6457,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3006.404946868832</v>
+        <v>513.8536007400693</v>
       </c>
       <c r="C31" t="n">
-        <v>3006.404946868832</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="D31" t="n">
-        <v>2856.288307456496</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="E31" t="n">
-        <v>2708.375213874103</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="F31" t="n">
-        <v>2561.485266376193</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>4689.613891616327</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T31" t="n">
-        <v>4470.012426639269</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U31" t="n">
-        <v>4180.937199983467</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V31" t="n">
-        <v>3926.25271177758</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W31" t="n">
-        <v>3636.835541740619</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X31" t="n">
-        <v>3408.845990842602</v>
+        <v>916.2946447138394</v>
       </c>
       <c r="Y31" t="n">
-        <v>3188.053411699072</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="32">
@@ -6691,22 +6691,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6715,13 +6715,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6782,19 +6782,19 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>352.5519571452613</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.5505208511905</v>
+        <v>951.7772127656169</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232836</v>
+        <v>782.8410298377098</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253739</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429807</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429807</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2415.384692536055</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>2126.309465880252</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.624977674365</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817746</v>
+        <v>1582.207807637405</v>
       </c>
       <c r="X34" t="n">
-        <v>1350.99156482496</v>
+        <v>1354.218256739387</v>
       </c>
       <c r="Y34" t="n">
-        <v>1130.19898568143</v>
+        <v>1133.425677595857</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6943,22 +6943,22 @@
         <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7019,16 +7019,16 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>789.7592298206043</v>
+        <v>983.3556038098216</v>
       </c>
       <c r="C37" t="n">
-        <v>620.8230468926974</v>
+        <v>814.4194208819144</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803617</v>
+        <v>664.3027814695786</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>516.3896878871853</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000582</v>
+        <v>369.4997403892748</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>202.3036411041547</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924457</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.20336871857</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1613.786198681609</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611859</v>
+        <v>1385.796647783592</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.4916164683287</v>
+        <v>1165.004068640061</v>
       </c>
     </row>
     <row r="38">
@@ -7162,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192906</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111747</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107584</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014782</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355941</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.26572885226</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398598</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492583</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474788</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I39" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273913</v>
       </c>
       <c r="J39" t="n">
-        <v>2233.355914590558</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>2233.355914590558</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L39" t="n">
-        <v>2233.355914590558</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>2830.73440221711</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>3458.332365771717</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>4010.242096011004</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>4433.865245506072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>4667.126905880955</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>782.841029837709</v>
+        <v>513.8536007400693</v>
       </c>
       <c r="C40" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121622</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121622</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121622</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121622</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>177.721318527042</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2420.915258032283</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2238.060423687188</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>2018.458958710129</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>1729.383732054326</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1474.699243848439</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1185.282073811479</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X40" t="n">
-        <v>1185.282073811479</v>
+        <v>916.2946447138394</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.4894946679487</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="41">
@@ -7390,13 +7390,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7405,55 +7405,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>636.6680198981028</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>467.7318369701959</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>818.3164847283425</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>3060.83890577277</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>3658.217393399322</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>4285.815356953929</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>4285.815356953929</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>917.5010142286973</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C46" t="n">
-        <v>748.5648313007904</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D46" t="n">
-        <v>748.5648313007904</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>600.6517377183973</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>453.7617902204869</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>286.5656909353668</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>144.8538597775649</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1099.149479058937</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-2.589839328116501e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-6.538133005296236e-13</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>22.81817176293616</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>206.8218058926138</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>94.92839560200201</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>126.0028419604376</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>186.1428431935225</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>120.379154584332</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>52.83923663127396</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>139.4693302300317</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>65.16817853567844</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>26.98982571067694</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856568</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>205.8445769401669</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194456</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856566</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>179.819217827201</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>186.1428431935258</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>178.2123075861795</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.43691740069013</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>32.89260457060305</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856566</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194464</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856566</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>40.58789941762395</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>55.2110282563296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>107.2784330767823</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>30.73901155626843</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>777768.2610757275</v>
+        <v>777768.2610757274</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>777768.2610757275</v>
+        <v>777768.2610757276</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>777768.2610757274</v>
+        <v>777768.2610757275</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>777768.2610757275</v>
+        <v>777768.2610757273</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>777768.2610757275</v>
+        <v>777768.2610757274</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>777768.2610757274</v>
+        <v>777768.2610757275</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>777768.2610757275</v>
+        <v>777768.2610757274</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>777768.2610757275</v>
+        <v>777768.2610757274</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>777768.2610757275</v>
+        <v>777768.2610757276</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914267</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.4158914268</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914267</v>
-      </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="G2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="I2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="J2" t="n">
         <v>645717.2797520048</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.2797520051</v>
       </c>
       <c r="K2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="L2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="N2" t="n">
         <v>645717.2797520052</v>
       </c>
-      <c r="M2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="O2" t="n">
-        <v>645717.2797520049</v>
-      </c>
       <c r="P2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,19 +26380,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.492788553354331e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5.223048447078327e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972768</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.784497610264225e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="D4" t="n">
         <v>90964.01098815707</v>
@@ -26432,31 +26432,31 @@
         <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680568</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680568</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680557</v>
       </c>
       <c r="K4" t="n">
+        <v>11776.97621680573</v>
+      </c>
+      <c r="L4" t="n">
         <v>11776.97621680577</v>
       </c>
-      <c r="L4" t="n">
-        <v>11776.97621680582</v>
-      </c>
       <c r="M4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680577</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680557</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="P4" t="n">
         <v>11776.97621680582</v>
@@ -26484,13 +26484,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26505,7 +26505,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-870809.2813857163</v>
+        <v>-870809.2813857161</v>
       </c>
       <c r="C6" t="n">
-        <v>457935.4643418766</v>
+        <v>457935.4643418762</v>
       </c>
       <c r="D6" t="n">
-        <v>457935.4643418761</v>
+        <v>457935.4643418763</v>
       </c>
       <c r="E6" t="n">
-        <v>207405.3119039368</v>
+        <v>207057.9326495799</v>
       </c>
       <c r="F6" t="n">
-        <v>532817.7737112921</v>
+        <v>532470.3944569348</v>
       </c>
       <c r="G6" t="n">
-        <v>532817.773711292</v>
+        <v>532470.3944569349</v>
       </c>
       <c r="H6" t="n">
-        <v>532817.7737112921</v>
+        <v>532470.3944569346</v>
       </c>
       <c r="I6" t="n">
-        <v>532817.7737112918</v>
+        <v>532470.3944569349</v>
       </c>
       <c r="J6" t="n">
-        <v>315286.5713140147</v>
+        <v>314939.1920596583</v>
       </c>
       <c r="K6" t="n">
-        <v>532817.7737112922</v>
+        <v>532470.3944569353</v>
       </c>
       <c r="L6" t="n">
-        <v>532817.7737112923</v>
+        <v>532470.3944569352</v>
       </c>
       <c r="M6" t="n">
-        <v>447762.7457757805</v>
+        <v>447415.3665214233</v>
       </c>
       <c r="N6" t="n">
-        <v>532817.7737112922</v>
+        <v>532470.3944569353</v>
       </c>
       <c r="O6" t="n">
-        <v>532817.7737112921</v>
+        <v>532470.3944569353</v>
       </c>
       <c r="P6" t="n">
-        <v>532817.7737112918</v>
+        <v>532470.3944569351</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26804,19 +26804,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26825,13 +26825,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.70828809965</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402292</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27047,7 +27047,7 @@
         <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>290.9502639294486</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>177.1940337214804</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>138.782701743402</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>172.2573809594894</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>212.903041572786</v>
+        <v>277.2566436803258</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>83.32522828944177</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>129.157702923533</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>207.5587809723415</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>69.86658336855001</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>42.8866709255262</v>
+        <v>34.80742331691701</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-2.706876775806041e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-5.468268590953371e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-1.158041529847076e-11</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
     </row>
     <row r="29">
@@ -29927,55 +29927,55 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-1.609996905259794e-14</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
     </row>
     <row r="35">
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-2.443284642531475e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>-1.523685392416591e-13</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>-1.523685392416594e-13</v>
       </c>
     </row>
     <row r="41">
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-5.377319120776078e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31849,22 +31849,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>195.7502366106279</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>316.0872899694776</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32232,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32256,7 +32256,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366926</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>200.3460366764704</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P21" t="n">
-        <v>399.4395445221152</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M24" t="n">
-        <v>269.1634560719508</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565744</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>362.180468412921</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33259,7 +33259,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33502,10 +33502,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>246.2467565146293</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33663,7 +33663,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162548</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175677</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067262</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33973,13 +33973,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>169.6252075171343</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>595.327537312171</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>543.0832917018702</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>61.77582919629761</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>173.4910455250332</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35904,7 +35904,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924765</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>57.74979223202591</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P21" t="n">
-        <v>265.4651371077849</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M24" t="n">
-        <v>127.0294221499325</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.95065951213</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>224.339029438562</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295326</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191199</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.4543240367771</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295326</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>108.4053175402703</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295326</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462675</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
         <v>735.300110790295</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>35.97859357997653</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295326</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236320307</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>23.94570355317035</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295326</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,19 +37864,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9858252288377</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315785</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>409.1088842875399</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2652582.983513768</v>
+        <v>2654343.513816553</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283199</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>370.0648965483574</v>
       </c>
       <c r="C2" t="n">
-        <v>74.322627841559</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292598</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247734</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -867,10 +867,10 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>143.0812453977544</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>114.2656173771016</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>17.35112070699466</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>17.35112070699488</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1059,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>65.29024472877059</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471489</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>224.7411810187704</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>201.66221878632</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>61.54499709292108</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>201.3228726519647</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710053</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,10 +1381,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417128</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>126.4418041083153</v>
       </c>
       <c r="T13" t="n">
-        <v>10.58364443467445</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1660,10 +1660,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187896</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2007,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176103</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>31.26260713376574</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444168</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>19.91555826189185</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>26.05480806223717</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101218</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>11.56087338712147</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892443</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766834</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101218</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890373</v>
+        <v>32.57570591153918</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.294712846224</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856566</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>31.26260713376259</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>107.4021082756209</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892443</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881329</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892427936</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101218</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016447</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>41.33703994143007</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>280.2121353250053</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2051.278283189673</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4330,22 +4330,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296685</v>
@@ -4369,13 +4369,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189673</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2051.278283189673</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686075</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4515,22 +4515,22 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.46409084602</v>
+        <v>1501.251696170064</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.46409084602</v>
+        <v>1501.251696170064</v>
       </c>
       <c r="V4" t="n">
-        <v>1837.46409084602</v>
+        <v>1501.251696170064</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>1501.251696170064</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="Y4" t="n">
         <v>1273.262145272047</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2065.110222835252</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1696.14770589484</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1337.88200728809</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>952.0937546898456</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>541.1078499002381</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>126.0353997452345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,10 +4567,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4603,16 +4603,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136266</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X5" t="n">
-        <v>2841.849394875186</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y5" t="n">
-        <v>2451.710062899374</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4637,19 +4637,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1007.446783179745</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>838.5106002518381</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
         <v>772.5608581015648</v>
@@ -4725,16 +4725,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W7" t="n">
-        <v>1637.877378051532</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>1409.887827153515</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>1189.095248009985</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2232.598233480555</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1863.635716540143</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1505.370017933393</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1119.581765335148</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>708.595860545541</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>293.5234103905374</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X8" t="n">
-        <v>3009.337405520489</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>2619.198073544677</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4874,16 +4874,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>594.6215500005598</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>425.6853670726529</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>275.5687276603171</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>275.5687276603171</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>128.6787801624068</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>128.6787801624068</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>128.6787801624068</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4995,19 +4995,19 @@
         <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1634.107653823834</v>
       </c>
       <c r="V10" t="n">
-        <v>1293.676735765777</v>
+        <v>1379.423165617947</v>
       </c>
       <c r="W10" t="n">
-        <v>1004.259565728817</v>
+        <v>1090.005995580987</v>
       </c>
       <c r="X10" t="n">
-        <v>776.2700148307995</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="Y10" t="n">
-        <v>776.2700148307995</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5020,34 +5020,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5120,28 +5120,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811333</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532264</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2252.19838578386</v>
       </c>
       <c r="T13" t="n">
-        <v>2186.371995553553</v>
+        <v>2252.19838578386</v>
       </c>
       <c r="U13" t="n">
-        <v>1897.296768897751</v>
+        <v>1963.123159128057</v>
       </c>
       <c r="V13" t="n">
-        <v>1642.612280691864</v>
+        <v>1708.43867092217</v>
       </c>
       <c r="W13" t="n">
-        <v>1353.195110654903</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.195110654903</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5308,10 +5308,10 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5415,22 +5415,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551878</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611467</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004716</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406472</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168643</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192741</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466577</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123006</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852892</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591812</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866616</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803938</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.7772127656161</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377092</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253735</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578603</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000584</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797745</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2415.384692536053</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551878</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611467</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004716</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406472</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168643</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362717</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5764,40 +5764,40 @@
         <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466577</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123006</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852892</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591812</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866616</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273915</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.230692780394</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516147</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348534</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876702</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597633</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474275</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>113.9333885650344</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>113.9333885650344</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>113.9333885650344</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580262</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235166</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258107</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602305</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396418</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359457</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>983.34034846144</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179099</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362694</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797196</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192517</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468476</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962607</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589159</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143766</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876702</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597633</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474275</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>261.8464821474275</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>261.8464821474275</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.34034846144</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179099</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6214,28 +6214,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6244,31 +6244,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>721.777415831137</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>552.84123290323</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908941</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908941</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908941</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057739</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797629</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910797</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570806</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279791</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885335</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580249</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832651</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487556</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2185.384895601574</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1896.309668945772</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V28" t="n">
-        <v>1641.625180739885</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W28" t="n">
-        <v>1352.208010702925</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X28" t="n">
-        <v>1124.218459804907</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y28" t="n">
-        <v>903.4258806613768</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6481,13 +6481,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6496,7 +6496,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400693</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908941</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908941</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908941</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908941</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057739</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6639,34 +6639,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138394</v>
+        <v>1111.379442165859</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703091</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6715,37 +6715,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.7772127656169</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>782.8410298377098</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253739</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429807</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429807</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578605</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6876,34 +6876,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2415.384692536055</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2126.309465880252</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1871.624977674365</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1582.207807637405</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1354.218256739387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1133.425677595857</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098216</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4194208819144</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>664.3027814695786</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>516.3896878871853</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>369.4997403892748</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>202.3036411041547</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,13 +7095,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7113,34 +7113,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924457</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.20336871857</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681609</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783592</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640061</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797196</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192906</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111747</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107584</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014782</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355941</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.26572885226</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398598</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492583</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474788</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,25 +7238,25 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797196</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273913</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121622</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121622</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121622</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121622</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.721318527042</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797196</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797196</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7350,34 +7350,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487566</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510507</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854705</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648818</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611857</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138394</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703091</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,16 +7721,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5020655703114</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C46" t="n">
-        <v>526.5658826424045</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1400.559342807163</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>951.777212765616</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>54.58448189332931</v>
       </c>
       <c r="T13" t="n">
-        <v>206.8218058926138</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>105.8997516911</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>186.1428431935225</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>120.379154584332</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012163</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>139.4693302300317</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856568</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>205.8445769401669</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194456</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856566</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>193.133949477498</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101218</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>186.1428431935258</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>32.89260457060305</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856566</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101218</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272884</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194464</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856566</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>107.2784330767823</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>6.310863011585695</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>790968.672741291</v>
+        <v>790968.6727412911</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>777768.2610757275</v>
+        <v>777768.2610757274</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>777768.2610757276</v>
+        <v>777768.2610757275</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>777768.2610757275</v>
+        <v>777768.2610757274</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>777768.2610757275</v>
+        <v>777768.2610757274</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>777768.2610757273</v>
+        <v>777768.2610757274</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>777768.2610757274</v>
+        <v>777768.2610757275</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>777768.2610757275</v>
+        <v>777768.2610757274</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>777768.2610757275</v>
+        <v>777768.2610757274</v>
       </c>
     </row>
     <row r="14">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914265</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.4158914267</v>
-      </c>
-      <c r="C2" t="n">
-        <v>656833.4158914268</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914266</v>
@@ -26325,37 +26325,37 @@
         <v>645717.2797520049</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="G2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="J2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="K2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="K2" t="n">
-        <v>645717.2797520051</v>
-      </c>
       <c r="L2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="N2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="O2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="M2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520051</v>
-      </c>
       <c r="P2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073551</v>
@@ -26380,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.492788553354331e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5.223048447078327e-10</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972768</v>
+        <v>217531.2023972772</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
-        <v>2.784497610264225e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815714</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815711</v>
       </c>
       <c r="D4" t="n">
         <v>90964.01098815707</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680574</v>
       </c>
       <c r="F4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680568</v>
+        <v>11776.97621680576</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680568</v>
+        <v>11776.97621680576</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680557</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680573</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680577</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680577</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680557</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
         <v>11776.97621680582</v>
@@ -26484,13 +26484,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26505,7 +26505,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-870809.2813857161</v>
+        <v>-870809.2813857163</v>
       </c>
       <c r="C6" t="n">
-        <v>457935.4643418762</v>
+        <v>457935.4643418763</v>
       </c>
       <c r="D6" t="n">
-        <v>457935.4643418763</v>
+        <v>457935.4643418761</v>
       </c>
       <c r="E6" t="n">
-        <v>207057.9326495799</v>
+        <v>207370.5739785012</v>
       </c>
       <c r="F6" t="n">
-        <v>532470.3944569348</v>
+        <v>532783.0357858565</v>
       </c>
       <c r="G6" t="n">
-        <v>532470.3944569349</v>
+        <v>532783.0357858564</v>
       </c>
       <c r="H6" t="n">
-        <v>532470.3944569346</v>
+        <v>532783.0357858564</v>
       </c>
       <c r="I6" t="n">
-        <v>532470.3944569349</v>
+        <v>532783.0357858565</v>
       </c>
       <c r="J6" t="n">
-        <v>314939.1920596583</v>
+        <v>315251.8333885788</v>
       </c>
       <c r="K6" t="n">
-        <v>532470.3944569353</v>
+        <v>532783.0357858562</v>
       </c>
       <c r="L6" t="n">
-        <v>532470.3944569352</v>
+        <v>532783.0357858561</v>
       </c>
       <c r="M6" t="n">
-        <v>447415.3665214233</v>
+        <v>447728.0078503443</v>
       </c>
       <c r="N6" t="n">
-        <v>532470.3944569353</v>
+        <v>532783.0357858562</v>
       </c>
       <c r="O6" t="n">
-        <v>532470.3944569353</v>
+        <v>532783.0357858564</v>
       </c>
       <c r="P6" t="n">
-        <v>532470.3944569351</v>
+        <v>532783.0357858562</v>
       </c>
     </row>
   </sheetData>
@@ -26810,13 +26810,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26825,13 +26825,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.70828809965</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.028161794974761e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26962,10 +26962,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.028161794974761e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>12.66894511512317</v>
       </c>
       <c r="C2" t="n">
-        <v>290.9502639294486</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27587,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>76.4677038784148</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>172.2573809594894</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>277.2566436803258</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>310.40113776314</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>83.32522828944177</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>83.32522828944209</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>69.86658336855001</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>168.0688818921491</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>34.80742331691701</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>84.88896555364818</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.706876775806041e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29325,13 +29325,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-5.468268590953371e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-1.158041529847076e-11</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29927,55 +29927,55 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.609996905259794e-14</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-2.443284642531475e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1.523685392416591e-13</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>-1.523685392416594e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-5.377319120776078e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31840,31 +31840,31 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>575.5951359912046</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,10 +32074,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32232,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067246</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32256,7 +32256,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.873223366926</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643557995</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,7 +32578,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32636,31 +32636,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
         <v>0.1345549672467222</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565744</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,7 +32815,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32873,31 +32873,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
         <v>0.1345549672467222</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>400.5469039565762</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067262</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>433.4611020691863</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318714</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35904,7 +35904,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924765</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774958</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674334</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113551</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317369</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674334</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>257.95065951213</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>257.9506595121318</v>
@@ -36752,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295326</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191199</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295326</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295326</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295326</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236320307</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295326</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,7 +37864,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,7 +37873,7 @@
         <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236315785</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
